--- a/PoissonArrival/results/zipf.xlsx
+++ b/PoissonArrival/results/zipf.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="20775" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="20775" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="zipf" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -20,13 +20,13 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Probability skew=0.1</t>
+    <t>skewness = 0.5</t>
   </si>
   <si>
-    <t>Probability skew=0.5</t>
+    <t>skewness = 1</t>
   </si>
   <si>
-    <t>Probability skew=1</t>
+    <t>skewness = 0.1</t>
   </si>
 </sst>
 </file>
@@ -568,14 +568,40 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The Probability Mass Function for Zipfian distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28166641916349372"/>
+          <c:y val="0.12139534439130766"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10561611662146922"/>
-          <c:y val="4.6770924467774859E-2"/>
+          <c:x val="0.2379891294887172"/>
+          <c:y val="8.863145619368408E-2"/>
           <c:w val="0.59227599364209083"/>
           <c:h val="0.79822506561679785"/>
         </c:manualLayout>
@@ -591,7 +617,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Probability skew=0.1</c:v>
+                  <c:v>skewness = 0.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2425,7 +2451,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Probability skew=0.5</c:v>
+                  <c:v>skewness = 0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4259,7 +4285,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Probability skew=1</c:v>
+                  <c:v>skewness = 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6084,38 +6110,68 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63922944"/>
-        <c:axId val="63924480"/>
+        <c:axId val="101548800"/>
+        <c:axId val="101550336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63922944"/>
+        <c:axId val="101548800"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63924480"/>
+        <c:crossAx val="101550336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63924480"/>
+        <c:axId val="101550336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63922944"/>
+        <c:crossAx val="101548800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39208037842841148"/>
+          <c:y val="0.4516000750192245"/>
+          <c:w val="0.15621379460188059"/>
+          <c:h val="0.11354387058986008"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6126,7 +6182,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6136,7 +6192,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
+    <xdr:pos x="-31750" y="-31750"/>
     <xdr:ext cx="9306278" cy="6067778"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6447,8 +6503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6462,13 +6518,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
